--- a/RB-Blessing/HoQ.xlsx
+++ b/RB-Blessing/HoQ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" saveExternalLinkValues="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofmannt.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6603993-88DF-4CD5-9DBA-B8D1B58598D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D720547-2873-46E4-BD6C-2599FE785B56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="904" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>Projektdaten:</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>Niedriger Stromverbrauch &gt;2kWh)</t>
-  </si>
-  <si>
-    <t>Kompakte (Kettenlänge &lt; 1000mm)</t>
   </si>
   <si>
     <t>Kleinförderband FB10-MMEngineering</t>
@@ -1809,31 +1806,31 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,361 +1838,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard_vorselekt" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -3465,8 +3108,8 @@
   </sheetPr>
   <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -3773,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="33" t="str">
         <f>E22</f>
@@ -3802,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="34" t="str">
         <f>F22</f>
@@ -3824,13 +3467,13 @@
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>89</v>
-      </c>
       <c r="E14" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="42">
         <v>0</v>
@@ -3853,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>88</v>
-      </c>
-      <c r="E15" s="49">
-        <v>0</v>
-      </c>
-      <c r="F15" s="44">
-        <v>0</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>89</v>
       </c>
       <c r="H15" s="34" t="str">
         <f>H22</f>
@@ -3886,22 +3529,22 @@
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="44">
+        <v>0</v>
+      </c>
+      <c r="G16" s="44">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>88</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="44">
-        <v>0</v>
-      </c>
-      <c r="G16" s="44">
-        <v>0</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>89</v>
       </c>
       <c r="I16" s="34" t="str">
         <f>I22</f>
@@ -3928,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="49">
         <v>0</v>
@@ -3937,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="44">
         <v>0</v>
@@ -3969,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="44">
         <v>0</v>
@@ -4008,16 +3651,16 @@
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="49">
         <v>0</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" s="44">
         <v>0</v>
@@ -4032,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="53" t="str">
         <f>L22</f>
@@ -4053,7 +3696,7 @@
       </c>
       <c r="B20" s="116"/>
       <c r="C20" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="44">
         <v>0</v>
@@ -4065,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="44">
         <v>0</v>
@@ -4074,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="54">
         <v>0</v>
@@ -4122,37 +3765,37 @@
     <row r="22" spans="1:52" s="58" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31"/>
       <c r="B22" s="103"/>
-      <c r="C22" s="164" t="s">
+      <c r="C22" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="164" t="s">
+      <c r="D22" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="164" t="s">
+      <c r="E22" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="164" t="s">
+      <c r="F22" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="164" t="s">
+      <c r="G22" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="164" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="164" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="164" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="164" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" s="164" t="s">
+      <c r="L22" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="M22" s="164" t="s">
+      <c r="M22" s="162" t="s">
         <v>80</v>
       </c>
       <c r="N22" s="100" t="s">
@@ -4162,10 +3805,10 @@
         <v>29</v>
       </c>
       <c r="P22" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" s="56" t="s">
         <v>86</v>
-      </c>
-      <c r="Q22" s="56" t="s">
-        <v>87</v>
       </c>
       <c r="R22" s="56" t="s">
         <v>17</v>
@@ -4174,10 +3817,10 @@
         <v>48</v>
       </c>
       <c r="T22" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="U22" s="141" t="s">
         <v>103</v>
-      </c>
-      <c r="U22" s="141" t="s">
-        <v>104</v>
       </c>
       <c r="V22" s="140" t="s">
         <v>18</v>
@@ -4186,17 +3829,17 @@
         <v>49</v>
       </c>
       <c r="X22" s="142" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y22" s="142" t="s">
         <v>105</v>
-      </c>
-      <c r="Y22" s="142" t="s">
-        <v>106</v>
       </c>
       <c r="Z22" s="57"/>
       <c r="AA22" s="43"/>
       <c r="AV22" s="43"/>
     </row>
     <row r="23" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="164" t="s">
         <v>81</v>
       </c>
       <c r="B23" s="59"/>
@@ -4305,7 +3948,7 @@
       <c r="AZ23" s="70"/>
     </row>
     <row r="24" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
+      <c r="A24" s="164" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="63"/>
@@ -4413,7 +4056,7 @@
       <c r="AZ24" s="70"/>
     </row>
     <row r="25" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="164" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="63"/>
@@ -4521,7 +4164,7 @@
       <c r="AZ25" s="70"/>
     </row>
     <row r="26" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="164" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="63"/>
@@ -4629,7 +4272,7 @@
       <c r="AZ26" s="70"/>
     </row>
     <row r="27" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="164" t="s">
         <v>82</v>
       </c>
       <c r="B27" s="63"/>
@@ -4737,7 +4380,7 @@
       <c r="AZ27" s="70"/>
     </row>
     <row r="28" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="164" t="s">
         <v>83</v>
       </c>
       <c r="B28" s="63"/>
@@ -4845,7 +4488,7 @@
       <c r="AZ28" s="70"/>
     </row>
     <row r="29" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="164" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="63"/>
@@ -4953,7 +4596,7 @@
       <c r="AZ29" s="70"/>
     </row>
     <row r="30" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="164" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="63"/>
@@ -5061,7 +4704,7 @@
       <c r="AZ30" s="70"/>
     </row>
     <row r="31" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="164" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="63"/>
@@ -5169,8 +4812,8 @@
       <c r="AZ31" s="70"/>
     </row>
     <row r="32" spans="1:52" s="73" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="166" t="s">
-        <v>85</v>
+      <c r="A32" s="164" t="s">
+        <v>57</v>
       </c>
       <c r="B32" s="63"/>
       <c r="C32" s="160">
@@ -5360,39 +5003,39 @@
       <c r="A34" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="164"/>
-      <c r="C34" s="164" t="s">
+      <c r="B34" s="162"/>
+      <c r="C34" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="165" t="s">
+      <c r="E34" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="164" t="s">
+      <c r="F34" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="164" t="s">
+      <c r="G34" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="164" t="s">
+      <c r="H34" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="H34" s="164" t="s">
+      <c r="I34" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="I34" s="164" t="s">
+      <c r="J34" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="J34" s="164" t="s">
+      <c r="K34" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="K34" s="164" t="s">
+      <c r="L34" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="L34" s="164" t="s">
+      <c r="M34" s="162" t="s">
         <v>101</v>
-      </c>
-      <c r="M34" s="164" t="s">
-        <v>102</v>
       </c>
       <c r="O34" s="155"/>
       <c r="P34" s="155"/>
@@ -5465,40 +5108,40 @@
     </row>
     <row r="36" spans="1:48" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="72"/>
-      <c r="C36" s="167">
-        <v>1</v>
-      </c>
-      <c r="D36" s="167">
-        <v>1</v>
-      </c>
-      <c r="E36" s="167">
+      <c r="C36" s="165">
+        <v>1</v>
+      </c>
+      <c r="D36" s="165">
+        <v>1</v>
+      </c>
+      <c r="E36" s="165">
         <v>5</v>
       </c>
-      <c r="F36" s="167">
+      <c r="F36" s="165">
         <v>3</v>
       </c>
-      <c r="G36" s="167">
-        <v>1</v>
-      </c>
-      <c r="H36" s="167">
+      <c r="G36" s="165">
+        <v>1</v>
+      </c>
+      <c r="H36" s="165">
         <v>3</v>
       </c>
-      <c r="I36" s="167">
-        <v>1</v>
-      </c>
-      <c r="J36" s="167">
+      <c r="I36" s="165">
+        <v>1</v>
+      </c>
+      <c r="J36" s="165">
         <v>3</v>
       </c>
-      <c r="K36" s="167">
-        <v>1</v>
-      </c>
-      <c r="L36" s="167">
-        <v>1</v>
-      </c>
-      <c r="M36" s="168">
+      <c r="K36" s="165">
+        <v>1</v>
+      </c>
+      <c r="L36" s="165">
+        <v>1</v>
+      </c>
+      <c r="M36" s="166">
         <v>1</v>
       </c>
       <c r="N36" s="152">
@@ -5516,40 +5159,40 @@
     </row>
     <row r="37" spans="1:48" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="72"/>
-      <c r="C37" s="167">
-        <v>1</v>
-      </c>
-      <c r="D37" s="167">
-        <v>1</v>
-      </c>
-      <c r="E37" s="167">
+      <c r="C37" s="165">
+        <v>1</v>
+      </c>
+      <c r="D37" s="165">
+        <v>1</v>
+      </c>
+      <c r="E37" s="165">
         <v>3</v>
       </c>
-      <c r="F37" s="167">
+      <c r="F37" s="165">
         <v>3</v>
       </c>
-      <c r="G37" s="167">
+      <c r="G37" s="165">
         <v>3</v>
       </c>
-      <c r="H37" s="167">
+      <c r="H37" s="165">
         <v>3</v>
       </c>
-      <c r="I37" s="167">
-        <v>1</v>
-      </c>
-      <c r="J37" s="167">
-        <v>1</v>
-      </c>
-      <c r="K37" s="167">
+      <c r="I37" s="165">
+        <v>1</v>
+      </c>
+      <c r="J37" s="165">
+        <v>1</v>
+      </c>
+      <c r="K37" s="165">
         <v>5</v>
       </c>
-      <c r="L37" s="167">
+      <c r="L37" s="165">
         <v>3</v>
       </c>
-      <c r="M37" s="168">
+      <c r="M37" s="166">
         <v>3</v>
       </c>
       <c r="N37" s="152">
@@ -5570,37 +5213,37 @@
         <v>28</v>
       </c>
       <c r="B38" s="74"/>
-      <c r="C38" s="169">
+      <c r="C38" s="167">
         <v>5</v>
       </c>
-      <c r="D38" s="169">
+      <c r="D38" s="167">
         <v>5</v>
       </c>
-      <c r="E38" s="169">
+      <c r="E38" s="167">
         <v>5</v>
       </c>
-      <c r="F38" s="169">
+      <c r="F38" s="167">
         <v>5</v>
       </c>
-      <c r="G38" s="169">
+      <c r="G38" s="167">
         <v>5</v>
       </c>
-      <c r="H38" s="169">
+      <c r="H38" s="167">
         <v>5</v>
       </c>
-      <c r="I38" s="169">
+      <c r="I38" s="167">
         <v>5</v>
       </c>
-      <c r="J38" s="169">
+      <c r="J38" s="167">
         <v>5</v>
       </c>
-      <c r="K38" s="169">
+      <c r="K38" s="167">
         <v>5</v>
       </c>
-      <c r="L38" s="169">
+      <c r="L38" s="167">
         <v>5</v>
       </c>
-      <c r="M38" s="170">
+      <c r="M38" s="168">
         <v>5</v>
       </c>
       <c r="N38" s="153">
@@ -5622,51 +5265,51 @@
         <v>20</v>
       </c>
       <c r="B39" s="154">
-        <f>SUMPRODUCT(B23:B32,$N23:$N32)</f>
+        <f t="shared" ref="B39:M39" si="6">SUMPRODUCT(B23:B32,$N23:$N32)</f>
         <v>0</v>
       </c>
       <c r="C39" s="154">
-        <f>SUMPRODUCT(C23:C32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="D39" s="154">
-        <f>SUMPRODUCT(D23:D32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="E39" s="154">
-        <f>SUMPRODUCT(E23:E32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="F39" s="154">
-        <f>SUMPRODUCT(F23:F32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="G39" s="154">
-        <f>SUMPRODUCT(G23:G32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="H39" s="154">
-        <f>SUMPRODUCT(H23:H32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I39" s="154">
-        <f>SUMPRODUCT(I23:I32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="J39" s="154">
-        <f>SUMPRODUCT(J23:J32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="K39" s="154">
-        <f>SUMPRODUCT(K23:K32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="L39" s="154">
-        <f>SUMPRODUCT(L23:L32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="M39" s="154">
-        <f>SUMPRODUCT(M23:M32,$N23:$N32)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="O39" s="73"/>
@@ -5684,51 +5327,51 @@
         <v>25</v>
       </c>
       <c r="B40" s="76">
-        <f t="shared" ref="B40:M40" si="6">B39/SUM($B$39:$M$39)*100</f>
+        <f t="shared" ref="B40:M40" si="7">B39/SUM($B$39:$M$39)*100</f>
         <v>0</v>
       </c>
       <c r="C40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.0273972602739727</v>
       </c>
       <c r="D40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.493150684931507</v>
       </c>
       <c r="E40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.41095890410959</v>
       </c>
       <c r="F40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.95890410958904</v>
       </c>
       <c r="G40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.123287671232877</v>
       </c>
       <c r="H40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.9315068493150687</v>
       </c>
       <c r="I40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1917808219178081</v>
       </c>
       <c r="J40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.232876712328768</v>
       </c>
       <c r="K40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="L40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.7671232876712324</v>
       </c>
       <c r="M40" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.397260273972603</v>
       </c>
       <c r="N40" s="81" t="s">
@@ -5749,51 +5392,51 @@
         <v>21</v>
       </c>
       <c r="B41" s="106">
-        <f>SUMPRODUCT(B23:B32,$W23:$W32)</f>
+        <f t="shared" ref="B41:M41" si="8">SUMPRODUCT(B23:B32,$W23:$W32)</f>
         <v>0</v>
       </c>
       <c r="C41" s="106">
-        <f>SUMPRODUCT(C23:C32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="D41" s="106">
-        <f>SUMPRODUCT(D23:D32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E41" s="106">
-        <f>SUMPRODUCT(E23:E32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="F41" s="106">
-        <f>SUMPRODUCT(F23:F32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>265</v>
       </c>
       <c r="G41" s="106">
-        <f>SUMPRODUCT(G23:G32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>371</v>
       </c>
       <c r="H41" s="106">
-        <f>SUMPRODUCT(H23:H32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="I41" s="106">
-        <f>SUMPRODUCT(I23:I32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="J41" s="106">
-        <f>SUMPRODUCT(J23:J32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>247.5</v>
       </c>
       <c r="K41" s="106">
-        <f>SUMPRODUCT(K23:K32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="L41" s="106">
-        <f>SUMPRODUCT(L23:L32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>245</v>
       </c>
       <c r="M41" s="106">
-        <f>SUMPRODUCT(M23:M32,$W23:$W32)</f>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="S41" s="52"/>
@@ -5810,51 +5453,51 @@
         <v>22</v>
       </c>
       <c r="B42" s="76">
-        <f t="shared" ref="B42:M42" si="7">B41/SUM($B41:$M41)*100</f>
+        <f t="shared" ref="B42:M42" si="9">B41/SUM($B41:$M41)*100</f>
         <v>0</v>
       </c>
       <c r="C42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.6317085179714432</v>
       </c>
       <c r="D42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.9236829148202856</v>
       </c>
       <c r="E42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.3397341211226</v>
       </c>
       <c r="F42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.047759724273758</v>
       </c>
       <c r="G42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>18.266863613983258</v>
       </c>
       <c r="H42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.58493353028065</v>
       </c>
       <c r="I42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.9084194977843421</v>
       </c>
       <c r="J42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.186115214180207</v>
       </c>
       <c r="K42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7232890201871001</v>
       </c>
       <c r="L42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.063023141309699</v>
       </c>
       <c r="M42" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.324470704086657</v>
       </c>
       <c r="N42" s="81" t="s">
@@ -5894,18 +5537,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B33:M33 B34:C34 E34:M34">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:M32">
-    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5944,11 +5587,11 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="20" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>1.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5977,18 +5620,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:M22">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A32">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6056,30 +5699,30 @@
     <row r="1" spans="2:30" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="20"/>
       <c r="C1" s="115"/>
-      <c r="D1" s="162" t="s">
+      <c r="D1" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
       <c r="Z1" s="18"/>
     </row>
     <row r="2" spans="2:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/RB-Blessing/HoQ.xlsx
+++ b/RB-Blessing/HoQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" saveExternalLinkValues="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofmannt.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D720547-2873-46E4-BD6C-2599FE785B56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB450AB2-EC53-4669-90B3-23F8BBFE6AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="904" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="904" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deckblatt" sheetId="10" r:id="rId1"/>
@@ -26,6 +26,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>Projektdaten:</t>
   </si>
@@ -103,9 +109,6 @@
   </si>
   <si>
     <t>relative Bedeutung (absolut)</t>
-  </si>
-  <si>
-    <t>HoQ</t>
   </si>
   <si>
     <t>Summe</t>
@@ -3108,8 +3111,8 @@
   </sheetPr>
   <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -3138,9 +3141,7 @@
       <c r="B1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>23</v>
-      </c>
+      <c r="G1" s="36"/>
       <c r="K1" s="2"/>
       <c r="L1" s="37"/>
       <c r="M1" s="2"/>
@@ -3325,7 +3326,7 @@
     </row>
     <row r="9" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="44"/>
       <c r="N9" s="38"/>
@@ -3343,7 +3344,7 @@
     </row>
     <row r="10" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="34" t="str">
@@ -3375,7 +3376,7 @@
     </row>
     <row r="11" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="42">
@@ -3409,14 +3410,14 @@
     </row>
     <row r="12" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44">
         <v>0</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="33" t="str">
         <f>E22</f>
@@ -3445,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="34" t="str">
         <f>F22</f>
@@ -3467,13 +3468,13 @@
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>88</v>
-      </c>
       <c r="E14" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="42">
         <v>0</v>
@@ -3496,16 +3497,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="49">
-        <v>0</v>
-      </c>
-      <c r="F15" s="44">
-        <v>0</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>88</v>
       </c>
       <c r="H15" s="34" t="str">
         <f>H22</f>
@@ -3525,26 +3526,26 @@
     </row>
     <row r="16" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="44">
+        <v>0</v>
+      </c>
+      <c r="G16" s="44">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>87</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="44">
-        <v>0</v>
-      </c>
-      <c r="G16" s="44">
-        <v>0</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>88</v>
       </c>
       <c r="I16" s="34" t="str">
         <f>I22</f>
@@ -3571,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="49">
         <v>0</v>
@@ -3580,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="44">
         <v>0</v>
@@ -3605,20 +3606,20 @@
     </row>
     <row r="18" spans="1:52" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="44">
         <v>0</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="44">
         <v>0</v>
@@ -3647,20 +3648,20 @@
     </row>
     <row r="19" spans="1:52" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="49">
         <v>0</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="44">
         <v>0</v>
@@ -3675,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L19" s="53" t="str">
         <f>L22</f>
@@ -3692,11 +3693,11 @@
     </row>
     <row r="20" spans="1:52" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="116"/>
       <c r="C20" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="44">
         <v>0</v>
@@ -3708,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H20" s="44">
         <v>0</v>
@@ -3717,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L20" s="54">
         <v>0</v>
@@ -3766,73 +3767,73 @@
       <c r="A22" s="31"/>
       <c r="B22" s="103"/>
       <c r="C22" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="162" t="s">
+      <c r="E22" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="162" t="s">
+      <c r="F22" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="162" t="s">
+      <c r="G22" s="162" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="162" t="s">
+      <c r="I22" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="162" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="162" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="162" t="s">
+      <c r="L22" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="162" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" s="162" t="s">
+      <c r="M22" s="162" t="s">
         <v>79</v>
-      </c>
-      <c r="M22" s="162" t="s">
-        <v>80</v>
       </c>
       <c r="N22" s="100" t="s">
         <v>16</v>
       </c>
       <c r="O22" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P22" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="Q22" s="56" t="s">
-        <v>86</v>
       </c>
       <c r="R22" s="56" t="s">
         <v>17</v>
       </c>
       <c r="S22" s="141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T22" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="U22" s="141" t="s">
         <v>102</v>
-      </c>
-      <c r="U22" s="141" t="s">
-        <v>103</v>
       </c>
       <c r="V22" s="140" t="s">
         <v>18</v>
       </c>
       <c r="W22" s="142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X22" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y22" s="142" t="s">
         <v>104</v>
-      </c>
-      <c r="Y22" s="142" t="s">
-        <v>105</v>
       </c>
       <c r="Z22" s="57"/>
       <c r="AA22" s="43"/>
@@ -3840,7 +3841,7 @@
     </row>
     <row r="23" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="59"/>
       <c r="C23" s="160">
@@ -3949,7 +3950,7 @@
     </row>
     <row r="24" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="164" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="63"/>
       <c r="C24" s="160">
@@ -4057,7 +4058,7 @@
     </row>
     <row r="25" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="160">
@@ -4165,7 +4166,7 @@
     </row>
     <row r="26" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="164" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="63"/>
       <c r="C26" s="160">
@@ -4273,7 +4274,7 @@
     </row>
     <row r="27" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="164" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="160">
@@ -4381,7 +4382,7 @@
     </row>
     <row r="28" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="164" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="160">
@@ -4489,7 +4490,7 @@
     </row>
     <row r="29" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="164" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="63"/>
       <c r="C29" s="160">
@@ -4597,7 +4598,7 @@
     </row>
     <row r="30" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="164" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="63"/>
       <c r="C30" s="160">
@@ -4705,7 +4706,7 @@
     </row>
     <row r="31" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="164" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="160">
@@ -4813,7 +4814,7 @@
     </row>
     <row r="32" spans="1:52" s="73" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="164" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="63"/>
       <c r="C32" s="160">
@@ -5001,41 +5002,41 @@
     </row>
     <row r="34" spans="1:48" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="162"/>
       <c r="C34" s="162" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="163" t="s">
+      <c r="E34" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="162" t="s">
+      <c r="F34" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="162" t="s">
+      <c r="G34" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="162" t="s">
+      <c r="H34" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="162" t="s">
+      <c r="I34" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="162" t="s">
+      <c r="J34" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="J34" s="162" t="s">
+      <c r="K34" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="K34" s="162" t="s">
+      <c r="L34" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="L34" s="162" t="s">
+      <c r="M34" s="162" t="s">
         <v>100</v>
-      </c>
-      <c r="M34" s="162" t="s">
-        <v>101</v>
       </c>
       <c r="O34" s="155"/>
       <c r="P34" s="155"/>
@@ -5073,7 +5074,7 @@
     </row>
     <row r="35" spans="1:48" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
@@ -5092,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P35" s="69"/>
       <c r="Q35" s="69"/>
@@ -5108,7 +5109,7 @@
     </row>
     <row r="36" spans="1:48" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="72"/>
       <c r="C36" s="165">
@@ -5159,7 +5160,7 @@
     </row>
     <row r="37" spans="1:48" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="72"/>
       <c r="C37" s="165">
@@ -5210,7 +5211,7 @@
     </row>
     <row r="38" spans="1:48" s="51" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="74"/>
       <c r="C38" s="167">
@@ -5324,7 +5325,7 @@
     </row>
     <row r="40" spans="1:48" s="51" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="76">
         <f t="shared" ref="B40:M40" si="7">B39/SUM($B$39:$M$39)*100</f>
@@ -5375,7 +5376,7 @@
         <v>7.397260273972603</v>
       </c>
       <c r="N40" s="81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O40" s="73"/>
       <c r="S40" s="52"/>
@@ -5501,7 +5502,7 @@
         <v>11.324470704086657</v>
       </c>
       <c r="N42" s="81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S42" s="52"/>
       <c r="T42" s="52"/>
@@ -5660,11 +5661,11 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.12" right="0.12" top="0.21" bottom="0.55000000000000004" header="0.22" footer="0.51181102300000003"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.98425196850393704" right="0.11811023622047245" top="0.19685039370078741" bottom="0.55118110236220474" header="0.23622047244094491" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;F</oddHeader>
-    <oddFooter>Seite &amp;P</oddFooter>
+    <oddFooter>&amp;RRisikobewertung, TM2018KM, Matrikelnummern 5620331, 3225750</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5700,7 +5701,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="115"/>
       <c r="D1" s="169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="170"/>
       <c r="F1" s="170"/>
@@ -5836,16 +5837,16 @@
         <v>Transportmaße unter 800mmx800mmx800mm</v>
       </c>
       <c r="X3" s="124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y3" s="127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA3" s="132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5853,7 +5854,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="83"/>
       <c r="E4" s="84">
@@ -5930,7 +5931,7 @@
         <v>2.8947368421052633</v>
       </c>
       <c r="AC4" s="137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5938,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="120">
         <f>2-E4</f>
@@ -6019,7 +6020,7 @@
         <v>2</v>
       </c>
       <c r="AD5" s="135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6027,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="120">
         <f>2-F4</f>
@@ -6109,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="AD6" s="135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6117,7 +6118,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="158" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="120">
         <f>2-G4</f>
@@ -6200,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6208,7 +6209,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="120">
         <f>2-H4</f>
@@ -6294,7 +6295,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="120">
         <f>2-I4</f>
@@ -6381,7 +6382,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="120">
         <f>2-J4</f>
@@ -6469,7 +6470,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="120">
         <f>2-K4</f>
@@ -6558,7 +6559,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="120">
         <f>2-L4</f>
@@ -6648,7 +6649,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="120">
         <f>2-M4</f>
@@ -6739,7 +6740,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="158" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="120">
         <f>2-N4</f>
@@ -6831,7 +6832,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="158" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="120">
         <f>2-O$4</f>
@@ -6924,7 +6925,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="120">
         <f>2-P4</f>
@@ -7018,7 +7019,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="158" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="120">
         <f>2-Q4</f>
@@ -7113,7 +7114,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="158" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="120">
         <f>2-R4</f>
@@ -7209,7 +7210,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="158" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="120">
         <f>2-S4</f>
@@ -7306,7 +7307,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="158" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="120">
         <f>2-T4</f>
@@ -7404,7 +7405,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="158" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="120">
         <f>2-U4</f>
@@ -7503,7 +7504,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="158" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="120">
         <f>2-V4</f>
@@ -7603,7 +7604,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="159" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="121">
         <f>2-W4</f>
@@ -7721,7 +7722,7 @@
       <c r="U24" s="98"/>
       <c r="V24" s="98"/>
       <c r="W24" s="134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X24" s="97">
         <f>MAX(X4:X23)</f>
@@ -7756,7 +7757,7 @@
       <c r="U25" s="98"/>
       <c r="V25" s="98"/>
       <c r="W25" s="134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X25" s="98">
         <f>SUM(X4:X23)</f>

--- a/RB-Blessing/HoQ.xlsx
+++ b/RB-Blessing/HoQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20340"/>
   <workbookPr showInkAnnotation="0" saveExternalLinkValues="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB450AB2-EC53-4669-90B3-23F8BBFE6AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCDA20F-1BAA-4D4A-81F4-FF0C4EBE56ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="904" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -255,9 +249,6 @@
     <t>Transportmaße unter 800mmx800mmx800mm</t>
   </si>
   <si>
-    <t>Befestigung Trum - Band</t>
-  </si>
-  <si>
     <t>Welle</t>
   </si>
   <si>
@@ -355,6 +346,9 @@
   </si>
   <si>
     <t>absolute Bedeutung Rematec</t>
+  </si>
+  <si>
+    <t>Befestigung Mitnehmer - Band</t>
   </si>
 </sst>
 </file>
@@ -3112,7 +3106,7 @@
   <dimension ref="A1:AZ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -3349,7 +3343,7 @@
       <c r="B10" s="44"/>
       <c r="C10" s="34" t="str">
         <f>C22</f>
-        <v>Befestigung Trum - Band</v>
+        <v>Befestigung Mitnehmer - Band</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="48"/>
@@ -3417,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="33" t="str">
         <f>E22</f>
@@ -3446,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="34" t="str">
         <f>F22</f>
@@ -3468,13 +3462,13 @@
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>87</v>
-      </c>
       <c r="E14" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="42">
         <v>0</v>
@@ -3497,16 +3491,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>86</v>
-      </c>
-      <c r="E15" s="49">
-        <v>0</v>
-      </c>
-      <c r="F15" s="44">
-        <v>0</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>87</v>
       </c>
       <c r="H15" s="34" t="str">
         <f>H22</f>
@@ -3530,22 +3524,22 @@
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="44">
+        <v>0</v>
+      </c>
+      <c r="G16" s="44">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>86</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="44">
-        <v>0</v>
-      </c>
-      <c r="G16" s="44">
-        <v>0</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>87</v>
       </c>
       <c r="I16" s="34" t="str">
         <f>I22</f>
@@ -3572,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="49">
         <v>0</v>
@@ -3581,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="44">
         <v>0</v>
@@ -3613,13 +3607,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="44">
         <v>0</v>
@@ -3652,16 +3646,16 @@
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="49">
         <v>0</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="44">
         <v>0</v>
@@ -3676,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L19" s="53" t="str">
         <f>L22</f>
@@ -3697,7 +3691,7 @@
       </c>
       <c r="B20" s="116"/>
       <c r="C20" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="44">
         <v>0</v>
@@ -3709,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="44">
         <v>0</v>
@@ -3718,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L20" s="54">
         <v>0</v>
@@ -3767,37 +3761,37 @@
       <c r="A22" s="31"/>
       <c r="B22" s="103"/>
       <c r="C22" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="162" t="s">
+      <c r="E22" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="162" t="s">
+      <c r="F22" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="162" t="s">
+      <c r="G22" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="162" t="s">
+      <c r="I22" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="162" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="162" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="162" t="s">
+      <c r="L22" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="K22" s="162" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22" s="162" t="s">
+      <c r="M22" s="162" t="s">
         <v>78</v>
-      </c>
-      <c r="M22" s="162" t="s">
-        <v>79</v>
       </c>
       <c r="N22" s="100" t="s">
         <v>16</v>
@@ -3806,10 +3800,10 @@
         <v>28</v>
       </c>
       <c r="P22" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="56" t="s">
         <v>84</v>
-      </c>
-      <c r="Q22" s="56" t="s">
-        <v>85</v>
       </c>
       <c r="R22" s="56" t="s">
         <v>17</v>
@@ -3818,10 +3812,10 @@
         <v>47</v>
       </c>
       <c r="T22" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="U22" s="141" t="s">
         <v>101</v>
-      </c>
-      <c r="U22" s="141" t="s">
-        <v>102</v>
       </c>
       <c r="V22" s="140" t="s">
         <v>18</v>
@@ -3830,10 +3824,10 @@
         <v>48</v>
       </c>
       <c r="X22" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y22" s="142" t="s">
         <v>103</v>
-      </c>
-      <c r="Y22" s="142" t="s">
-        <v>104</v>
       </c>
       <c r="Z22" s="57"/>
       <c r="AA22" s="43"/>
@@ -3841,7 +3835,7 @@
     </row>
     <row r="23" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="164" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="59"/>
       <c r="C23" s="160">
@@ -4274,7 +4268,7 @@
     </row>
     <row r="27" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="160">
@@ -4382,7 +4376,7 @@
     </row>
     <row r="28" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="164" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="160">
@@ -4490,7 +4484,7 @@
     </row>
     <row r="29" spans="1:52" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="164" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="63"/>
       <c r="C29" s="160">
@@ -5006,37 +5000,37 @@
       </c>
       <c r="B34" s="162"/>
       <c r="C34" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="163" t="s">
+      <c r="E34" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="162" t="s">
+      <c r="F34" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="162" t="s">
+      <c r="G34" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="162" t="s">
+      <c r="H34" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="162" t="s">
+      <c r="I34" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="162" t="s">
+      <c r="J34" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="J34" s="162" t="s">
+      <c r="K34" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="K34" s="162" t="s">
+      <c r="L34" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="L34" s="162" t="s">
+      <c r="M34" s="162" t="s">
         <v>99</v>
-      </c>
-      <c r="M34" s="162" t="s">
-        <v>100</v>
       </c>
       <c r="O34" s="155"/>
       <c r="P34" s="155"/>
@@ -5109,7 +5103,7 @@
     </row>
     <row r="36" spans="1:48" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="72"/>
       <c r="C36" s="165">
@@ -5160,7 +5154,7 @@
     </row>
     <row r="37" spans="1:48" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="72"/>
       <c r="C37" s="165">
